--- a/System development files/makeReservationOperationContract.xlsx
+++ b/System development files/makeReservationOperationContract.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidDELL\Documents\Munkák 3\Tanulmányok\UCN\Computer Science AP\2nd Semester\dmai0914-semester2-finalProject-group3\System development files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Desktop w10\Semester 2\SecondSemesterProject\Github\Semester2\dmai0914-semester2-finalProject-group3\System development files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Operation:</t>
   </si>
@@ -54,6 +54,19 @@
   </si>
   <si>
     <t>In case of preorder an inactive order has been created</t>
+  </si>
+  <si>
+    <t>createMerchandise(name, price, type)</t>
+  </si>
+  <si>
+    <t>Create Merchandise</t>
+  </si>
+  <si>
+    <t>Item not in the database</t>
+  </si>
+  <si>
+    <t>Item is created and saved
+The item is defined as one of the three types available</t>
   </si>
 </sst>
 </file>
@@ -77,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,11 +126,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -127,9 +164,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,10 +513,56 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System development files/makeReservationOperationContract.xlsx
+++ b/System development files/makeReservationOperationContract.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Operation:</t>
   </si>
@@ -67,6 +67,21 @@
   <si>
     <t>Item is created and saved
 The item is defined as one of the three types available</t>
+  </si>
+  <si>
+    <t>setIngredients(ingredients)</t>
+  </si>
+  <si>
+    <t>Merchandise was created</t>
+  </si>
+  <si>
+    <t>Item is updated.</t>
+  </si>
+  <si>
+    <t>setIsVegetarian(isVegetarian)</t>
+  </si>
+  <si>
+    <t>Item is updated and the ingredients are set.</t>
   </si>
 </sst>
 </file>
@@ -161,8 +176,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -170,8 +185,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,116 +468,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
